--- a/xlsx/火山岛_intext.xlsx
+++ b/xlsx/火山岛_intext.xlsx
@@ -29,13 +29,13 @@
     <t>莫雷阿岛</t>
   </si>
   <si>
-    <t>政策_政策_美國_火山岛</t>
+    <t>政策_政策_美国_火山岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E7%88%BE%E7%9A%84%E9%87%91%E5%AD%97%E5%A1%94</t>
   </si>
   <si>
-    <t>柏爾的金字塔</t>
+    <t>柏尔的金字塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%B1%B1</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>菲律賓群島</t>
+    <t>菲律宾群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%B0%BC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>印尼群島</t>
+    <t>印尼群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E9%97%A8%E7%AD%94%E8%85%8A%E5%B2%9B</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%88%AA%E5%93%87%E5%B3%B6</t>
   </si>
   <si>
-    <t>爪哇島</t>
+    <t>爪哇岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E7%BE%A4%E5%B2%9B</t>
@@ -119,55 +119,55 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
+    <t>冰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%AE%89%E5%9C%B0%E5%88%97%E6%96%AF%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>小安地列斯群島</t>
+    <t>小安地列斯群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%8E%E6%B9%96%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>澎湖群島</t>
+    <t>澎湖群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%9A%86%E5%B6%BC</t>
   </si>
   <si>
-    <t>基隆嶼</t>
+    <t>基隆屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BE%9C%E5%B1%B1%E5%B3%B6</t>
   </si>
   <si>
-    <t>龜山島</t>
+    <t>龟山岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%AD%E5%B6%BC</t>
   </si>
   <si>
-    <t>蘭嶼</t>
+    <t>兰屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E5%B3%B6</t>
   </si>
   <si>
-    <t>綠島</t>
+    <t>绿岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%A3%E9%AD%9A%E8%87%BA%E5%88%97%E5%B6%BC</t>
   </si>
   <si>
-    <t>釣魚臺列嶼</t>
+    <t>钓鱼台列屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B3%A7%E8%88%B9%E7%81%A3%E6%B4%B2</t>
   </si>
   <si>
-    <t>糧船灣洲</t>
+    <t>粮船湾洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%9B%BD</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%B1%B1%E6%B8%A3%E9%8C%90</t>
   </si>
   <si>
-    <t>火山渣錐</t>
+    <t>火山渣锥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E7%81%AB%E5%B1%B1</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%84%E7%94%9F%E7%81%AB%E5%B1%B1%E9%8C%90</t>
   </si>
   <si>
-    <t>寄生火山錐</t>
+    <t>寄生火山锥</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Pyroclastic_cone</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%B1%B1%E7%A2%8E%E5%B1%91%E7%9B%BE%E7%8B%80%E7%81%AB%E5%B1%B1</t>
   </si>
   <si>
-    <t>火山碎屑盾狀火山</t>
+    <t>火山碎屑盾状火山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%BE%E7%8A%B6%E7%81%AB%E5%B1%B1</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A4%87%E5%BC%8F%E7%81%AB%E5%B1%B1</t>
   </si>
   <si>
-    <t>複式火山</t>
+    <t>复式火山</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Subglacial_volcano</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%B1%B1%E9%8C%90</t>
   </si>
   <si>
-    <t>火山錐</t>
+    <t>火山锥</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Volcanic_field</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E5%A1%8A%E5%B2%A9</t>
   </si>
   <si>
-    <t>集塊岩</t>
+    <t>集块岩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%B1%B1%E5%B2%A9</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E7%B4%8B%E5%B2%A9</t>
   </si>
   <si>
-    <t>流紋岩</t>
+    <t>流纹岩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%97%E9%9D%A2%E5%B2%A9</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%B1%B1%E5%B8%B6</t>
   </si>
   <si>
-    <t>火山帶</t>
+    <t>火山带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%AD%A6</t>
